--- a/tests/artifact/data/UI-PurchaseOrder.data.xlsx
+++ b/tests/artifact/data/UI-PurchaseOrder.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="224">
   <si>
     <t>login.screen</t>
   </si>
@@ -49,10 +49,16 @@
     <t>//*[@class='bottom_section__title']</t>
   </si>
   <si>
-    <t>org.open</t>
-  </si>
-  <si>
-    <t>//button[text()=' Open ']</t>
+    <t>Org.locator</t>
+  </si>
+  <si>
+    <t>//tr/td[text()=' ']/parent::tr/td[@aria-colindex="4"]/button</t>
+  </si>
+  <si>
+    <t>Org.Name</t>
+  </si>
+  <si>
+    <t>IndianInstitute</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -172,7 +178,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>crypt:a778b096dd48a3e533c7f774e607425ec041ca57f192e5de</t>
+    <t>crypt:0db89afc616782385ecd997f4e5511e6e2d6315103adea76</t>
   </si>
   <si>
     <t>button.submit</t>
@@ -187,34 +193,46 @@
     <t>//*[text()='Login Success!']</t>
   </si>
   <si>
+    <t>title.locator</t>
+  </si>
+  <si>
+    <t>//*[text()='Welcome Accion!']</t>
+  </si>
+  <si>
     <t>title.header</t>
   </si>
   <si>
-    <t>//*[text()='Welcome Accion!']</t>
+    <t>Welcome Accion!</t>
   </si>
   <si>
     <t>org.workflow</t>
   </si>
   <si>
-    <t>//*[text()='Workflow']</t>
+    <t>//span[text()='Workflow']</t>
   </si>
   <si>
     <t>org.transactions</t>
   </si>
   <si>
-    <t>//*[text()='Transactions']</t>
+    <t>//span[text()='Transactions']</t>
   </si>
   <si>
     <t>org.purchase/salesorder</t>
   </si>
   <si>
-    <t>//*[text()='Purchase/Sales Order']</t>
+    <t>//a[contains(@href,'PurchaseSalesOrder')]</t>
+  </si>
+  <si>
+    <t>Select.Purchase</t>
+  </si>
+  <si>
+    <t>//span[text()='Purchase']</t>
   </si>
   <si>
     <t>p_s.additem</t>
   </si>
   <si>
-    <t>(//*[@id='add-item'])[8]</t>
+    <t>(//*[@href='#/ps-order'])</t>
   </si>
   <si>
     <t>button.addcontact</t>
@@ -229,10 +247,28 @@
     <t>(//input[@type='radio'])[2]</t>
   </si>
   <si>
+    <t>Item.rate</t>
+  </si>
+  <si>
+    <t>//td[@aria-colindex="4"]/div/input[@class="hide-spin-button text-right px-1 form-control form-control-sm"]</t>
+  </si>
+  <si>
+    <t>Create.button</t>
+  </si>
+  <si>
+    <t>//span[@data-msgid="Create"]</t>
+  </si>
+  <si>
+    <t>Create.ok.button</t>
+  </si>
+  <si>
+    <t>//button[@class="btn btn-success btn-sm"]</t>
+  </si>
+  <si>
     <t>search.name</t>
   </si>
   <si>
-    <t>(//input[@type='search'])[1]</t>
+    <t>//form[@class="mt-3 px-2 d-md-block"]/descendant::input[@type="search"]</t>
   </si>
   <si>
     <t>buyer.edit.button</t>
@@ -241,6 +277,18 @@
     <t>//button[@title='Edit Contact']</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Select.name</t>
+  </si>
+  <si>
+    <t>//li[contains(text(),' ')]</t>
+  </si>
+  <si>
     <t>buyer.input.address</t>
   </si>
   <si>
@@ -286,19 +334,25 @@
     <t>sale.input.no</t>
   </si>
   <si>
-    <t>(//input[@type='text'])[11]</t>
+    <t>//input[@id="pod-input-10"]</t>
   </si>
   <si>
     <t>sale.input.date</t>
   </si>
   <si>
-    <t>(//input[@type='text'])[12]</t>
+    <t>//input[@id="pod-date-1"]</t>
+  </si>
+  <si>
+    <t>sale.currentdate</t>
+  </si>
+  <si>
+    <t>//div[@aria-current="date"]/span[contains(@class,"active")]</t>
   </si>
   <si>
     <t>sales.datepicker</t>
   </si>
   <si>
-    <t>(//button[@type='button'])[14]</t>
+    <t>//input[@id="pod-date-1"]/parent::div/div//button</t>
   </si>
   <si>
     <t>sale.input.terms</t>
@@ -310,7 +364,7 @@
     <t>sale.input.creditperiod</t>
   </si>
   <si>
-    <t>(//input[@type='number'])[3]</t>
+    <t>(//input[@id="pod-input-90"])</t>
   </si>
   <si>
     <t>sale.toggle.shipping</t>
@@ -352,10 +406,19 @@
     <t>add.gstin</t>
   </si>
   <si>
+    <t>//input[contains(@class,"gstin")]</t>
+  </si>
+  <si>
     <t>add.name</t>
   </si>
   <si>
-    <t>(//input[@type='text'])[4]</t>
+    <t>//input[@placeholder="Customer Name"]</t>
+  </si>
+  <si>
+    <t>suppAdd.name</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Supplier Name"]</t>
   </si>
   <si>
     <t>add.address</t>
@@ -364,10 +427,22 @@
     <t>(//textarea[@id='ci-input-40'])</t>
   </si>
   <si>
+    <t>clear.state</t>
+  </si>
+  <si>
+    <t>//div[@class="vs__actions"]/button[@class="vs__clear"]</t>
+  </si>
+  <si>
     <t>add.state</t>
   </si>
   <si>
-    <t>(//input[@class='vs__search'])[2]</t>
+    <t>//input[@type="search"]</t>
+  </si>
+  <si>
+    <t>//*[local-name()='svg'][@class="vs__open-indicator"]</t>
+  </si>
+  <si>
+    <t>select.state</t>
   </si>
   <si>
     <t>add.pincode</t>
@@ -379,13 +454,27 @@
     <t>add.pan</t>
   </si>
   <si>
-    <t>(//input[@type='text'])[5]</t>
+    <t>(//input[@id="ci-input-80"])</t>
   </si>
   <si>
     <t>add.gstin.type</t>
   </si>
   <si>
-    <t>(//select[@id='ci-input-11'])</t>
+    <t>//select[@id='ci-input-11']</t>
+  </si>
+  <si>
+    <t>gstin.value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Registered Regular</t>
+    </r>
   </si>
   <si>
     <t>add.gst.party.type</t>
@@ -397,7 +486,7 @@
     <t>toggle.contactdetails</t>
   </si>
   <si>
-    <t>(//input[@class='custom-control-input'])[1]</t>
+    <t>//input[@class='custom-control-input']/parent::div//descendant::span[text()='Contact Details']</t>
   </si>
   <si>
     <t>contactdetails.email</t>
@@ -421,7 +510,7 @@
     <t>toggle.bankdetails</t>
   </si>
   <si>
-    <t>(//input[@class='custom-control-input'])[2]</t>
+    <t>//input[@class='custom-control-input']/parent::div//descendant::span[text()='Bank Details']</t>
   </si>
   <si>
     <t>bankdetails.input.ifsccode</t>
@@ -451,68 +540,195 @@
     <t>save.button</t>
   </si>
   <si>
-    <t>(//button[@type='submit'])[1]</t>
+    <t>(//button[@type='submit'])</t>
   </si>
   <si>
     <t>reset.button</t>
   </si>
   <si>
-    <t>(//button[@type='button'])[11]</t>
+    <t>//button[@class="btn m-1 btn-warning btn-sm"]</t>
+  </si>
+  <si>
+    <t>back.button</t>
+  </si>
+  <si>
+    <t>//button[@class="btn m-1 btn-danger btn-sm"]</t>
   </si>
   <si>
     <t>confirmation.ok</t>
   </si>
   <si>
-    <t>(//button[@type='button'])[46]</t>
+    <t>(//button[@class="btn btn-success btn-sm"])</t>
   </si>
   <si>
     <t>confirmation.cancel</t>
   </si>
   <si>
-    <t>(//button[@type='button'])[45]</t>
-  </si>
-  <si>
-    <t>radio.button.type</t>
-  </si>
-  <si>
-    <t>(//input[@value='supplier'])[2]</t>
+    <t>(//button[@class="btn btn-secondary btn-sm"])</t>
+  </si>
+  <si>
+    <t>popup.success.Sales</t>
+  </si>
+  <si>
+    <t>//div[@class='toast-body'][contains(text(),'Sale Order was successfully created')]</t>
+  </si>
+  <si>
+    <t>popup.success.Purchase</t>
+  </si>
+  <si>
+    <t>//div[@class='toast-body'][contains(text(),'Purchase Order was successfully created')]</t>
+  </si>
+  <si>
+    <t>popup.alert.supplier</t>
+  </si>
+  <si>
+    <t>//div[@class='toast-body'][contains(text(),'Supplier entry already exists! (Please check Name, FAX or PAN)')]</t>
+  </si>
+  <si>
+    <t>popup.success.supplier</t>
+  </si>
+  <si>
+    <t>//div[@class='toast-body'][contains(text(),'Supplier created successfully')]</t>
   </si>
   <si>
     <t>popup.alert.customer</t>
   </si>
   <si>
-    <t>(//*[text='customer entry already exists! (Please check Name,FAX or PAN)'])</t>
+    <t>//div[@class='toast-body'][contains(text(),'Customer entry already exists! (Please check Name, FAX or PAN)')]</t>
   </si>
   <si>
     <t>popup.success.customer</t>
   </si>
   <si>
-    <t>(//*[text='customer added successfully'])</t>
-  </si>
-  <si>
-    <t>popup.alert.supplier</t>
-  </si>
-  <si>
-    <t>(//*[text='Supplier entry already exists! (Please check Name,FAX or PAN)'])</t>
-  </si>
-  <si>
-    <t>popup.success.supplier</t>
-  </si>
-  <si>
-    <t>(//*[text='supplier added successfully'])</t>
+    <t>//div[@class='toast-body'][contains(text(),'Customer created successfully')]</t>
+  </si>
+  <si>
+    <t>Radio.Customer</t>
+  </si>
+  <si>
+    <t>//span[text()='Customer']</t>
+  </si>
+  <si>
+    <t>Cust.gstin</t>
+  </si>
+  <si>
+    <t>37AABCT5589K2ZN</t>
+  </si>
+  <si>
+    <t>Cust.Addr</t>
+  </si>
+  <si>
+    <t>NO.11-25-21-OPP.HINDU HIGH SCHOOLSUBBARAMIAH STREET, VIJAYAWADA,ANDHRA PRADESH</t>
+  </si>
+  <si>
+    <t>Cust.State</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Cust.pin</t>
+  </si>
+  <si>
+    <t>520001</t>
+  </si>
+  <si>
+    <t>Cust.pan</t>
+  </si>
+  <si>
+    <t>DMACC0460H</t>
+  </si>
+  <si>
+    <t>gst.party.type</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Cust.Bank.IfscCode</t>
+  </si>
+  <si>
+    <t>HDFC0000040</t>
+  </si>
+  <si>
+    <t>Cust.AccountNumber</t>
+  </si>
+  <si>
+    <t>HDFC98765432023</t>
+  </si>
+  <si>
+    <t>Radio.Supplier</t>
+  </si>
+  <si>
+    <t>//span[text()='Supplier']</t>
+  </si>
+  <si>
+    <t>Supplier.gstin</t>
+  </si>
+  <si>
+    <t>18AABCT5589K2ZN</t>
+  </si>
+  <si>
+    <t>Supplier.Addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IST FLOOR-408-GANGA BHAVAN,OPP.S.B.DEORAH COLLEGE, G S ROAD -ULUBARI, GUWAHATI
+</t>
+  </si>
+  <si>
+    <t>Supplier.State</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Supplier.pin</t>
+  </si>
+  <si>
+    <t>781007</t>
+  </si>
+  <si>
+    <t>Supplier.pan</t>
+  </si>
+  <si>
+    <t>AABCT5589K</t>
+  </si>
+  <si>
+    <t>Supplier.Bank.IfscCode</t>
+  </si>
+  <si>
+    <t>HDFC0000041</t>
+  </si>
+  <si>
+    <t>Supplier.AccountNumber</t>
+  </si>
+  <si>
+    <t>HDFC98765432024</t>
+  </si>
+  <si>
+    <t>State.Dropdown</t>
+  </si>
+  <si>
+    <t>//div[@class='vs__selected-options']/input[@placeholder="Select a State"]</t>
+  </si>
+  <si>
+    <t>Close.button</t>
+  </si>
+  <si>
+    <t>//button[@class="btn m-1 float-right btn-danger btn-sm"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,11 +765,152 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,135 +927,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -709,181 +937,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,11 +1146,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,11 +1194,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,17 +1224,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,181 +1243,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1193,59 +1421,111 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="1"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.0499893185216834"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1294,33 +1574,6 @@
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14996795556505"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="1"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.0499893185216834"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -1604,18 +1857,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7013888888889" defaultRowHeight="16.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="5" width="21.2986111111111" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.7013888888889" style="3"/>
+    <col min="2" max="2" width="103.357142857143" style="2" customWidth="1"/>
+    <col min="3" max="5" width="21.3" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.7" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.1" customHeight="1" spans="1:2">
@@ -1652,26 +1905,26 @@
     </row>
     <row r="5" ht="23.1" customHeight="1" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="23.1" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="23.1" customHeight="1" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="23.1" customHeight="1" spans="1:2">
@@ -1734,7 +1987,7 @@
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1742,7 +1995,7 @@
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1782,7 +2035,7 @@
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1790,7 +2043,7 @@
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1958,7 +2211,7 @@
       <c r="A43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1966,7 +2219,7 @@
       <c r="A44" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2055,383 +2308,668 @@
         <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" ht="23.1" customHeight="1" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" ht="23.1" customHeight="1" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" ht="23.1" customHeight="1" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" ht="23.1" customHeight="1" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" ht="23.1" customHeight="1" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" ht="23.1" customHeight="1" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" ht="23.1" customHeight="1" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" ht="23.1" customHeight="1" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" ht="23.1" customHeight="1" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" ht="23.1" customHeight="1" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" ht="23.1" customHeight="1" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" ht="23.1" customHeight="1" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" ht="23.1" customHeight="1" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" ht="23.1" customHeight="1" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" ht="23.1" customHeight="1" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="2" t="s">
         <v>132</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="70" ht="23.1" customHeight="1" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="71" ht="23.1" customHeight="1" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" ht="23.1" customHeight="1" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" ht="23.1" customHeight="1" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" ht="23.1" customHeight="1" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="2" t="s">
         <v>142</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="75" ht="23.1" customHeight="1" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" ht="23.1" customHeight="1" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" ht="23.1" customHeight="1" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" ht="23.1" customHeight="1" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" ht="23.1" customHeight="1" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" ht="23.1" customHeight="1" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A94" s="4"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A93" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A95" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A96" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A99" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A101" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A102" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A104" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0"/>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A3,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A3,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A3,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="28" stopIfTrue="1">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="8">
+      <formula>LEN(TRIM(B93))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="4" priority="29" stopIfTrue="1">
+  <conditionalFormatting sqref="A96">
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A96,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A96,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A96,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12" stopIfTrue="1">
+      <formula>LEN(TRIM(A96))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:E96">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="30">
-      <formula>LEN(TRIM(B3))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="14">
+      <formula>LEN(TRIM(B96))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="A1:A4">
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A1,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="40" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="41" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="42" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A1,LEN("//"))="//"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="A6:A8">
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A6,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="28" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A6,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="29" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A6,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="30" stopIfTrue="1">
+      <formula>LEN(TRIM(A6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A30">
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A9,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="34" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A9,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="35" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A9,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="36" stopIfTrue="1">
+      <formula>LEN(TRIM(A9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:A93">
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A92,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="22" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A92,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="23" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A92,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="24" stopIfTrue="1">
+      <formula>LEN(TRIM(A92))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:A95">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A94,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A94,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A94,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A94))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:A112">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A106,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="16" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A106,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="17" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A106,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="18" stopIfTrue="1">
+      <formula>LEN(TRIM(A106))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B4">
+    <cfRule type="expression" dxfId="0" priority="43" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="44">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B8">
+    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="32">
+      <formula>LEN(TRIM(B6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B30">
+    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="38">
+      <formula>LEN(TRIM(B9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:E4 B5:E5 C6:E33 B31:B33 B34:E51 B113:E1048576 B97:E105 B90:E91 C52:E65 B52:B69 D66:E89 B70:C89 C66:C68">
+    <cfRule type="expression" dxfId="0" priority="55" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="58">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5 A31:A91 A113:A1048576 A97:A105">
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A5,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A5,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A5,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="54" stopIfTrue="1">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A5,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A5,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A5,LEN("//"))="//"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A28">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(A8))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A8,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A8,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A8,LEN("//"))="//"</formula>
+  <conditionalFormatting sqref="B92:E92 C93:E93">
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="26">
+      <formula>LEN(TRIM(B92))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A80">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A79))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A79,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A79,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A79,LEN("//"))="//"</formula>
+  <conditionalFormatting sqref="B94:E95">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="6">
+      <formula>LEN(TRIM(B94))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="24">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="23" stopIfTrue="1">
+  <conditionalFormatting sqref="B106:E112">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B7">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
-      <formula>LEN(TRIM(B5))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B28">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="18">
-      <formula>LEN(TRIM(B8))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E3 B4:E4 C5:E28 B29:E78 B81:E1048576">
-    <cfRule type="expression" dxfId="4" priority="35" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="38">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4 A29:A78 A81:A1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A4,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A4,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A4,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="34" stopIfTrue="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79:E80">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(B79))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="20">
+      <formula>LEN(TRIM(B106))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
